--- a/衍生品定价模型/衍生品定价模型结构.xlsx
+++ b/衍生品定价模型/衍生品定价模型结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Option</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>连续分红股票欧式期权的BSM解析定价模型</t>
-  </si>
-  <si>
-    <t>连续分红股票欧式期权的BSM定价模型-蒙特卡洛求解</t>
   </si>
   <si>
     <t>欧式股票期权的基类</t>
@@ -85,6 +82,22 @@
   <si>
     <t>EuropeanOptionBSMMonteCarlo</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散平均亚式股票期权的基类</t>
+  </si>
+  <si>
+    <t>DiscreteAveragingAsiannOption</t>
+  </si>
+  <si>
+    <t>连续分红股票欧式期权的BSM定价模型-蒙特卡洛求解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散平均价格亚式股票期权BSM定价模型-蒙特卡洛求解</t>
+  </si>
+  <si>
+    <t>DiscreteArithmeticAveragingPriceAsiannOptionBSMMonteCarlo</t>
   </si>
 </sst>
 </file>
@@ -457,17 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -485,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -502,57 +516,73 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/衍生品定价模型/衍生品定价模型结构.xlsx
+++ b/衍生品定价模型/衍生品定价模型结构.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
